--- a/tut05/output/0501ME06.xlsx
+++ b/tut05/output/0501ME06.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.469387755102041</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>8.204545454545455</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D6" t="n">
         <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>8.693877551020408</v>
+        <v>8.69</v>
       </c>
       <c r="F6" t="n">
-        <v>9.478260869565217</v>
+        <v>9.48</v>
       </c>
       <c r="G6" t="n">
-        <v>9.695652173913043</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>9.800000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.469387755102041</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>8.344086021505376</v>
+        <v>8.34</v>
       </c>
       <c r="D8" t="n">
-        <v>8.564285714285715</v>
+        <v>8.56</v>
       </c>
       <c r="E8" t="n">
-        <v>8.597883597883598</v>
+        <v>8.6</v>
       </c>
       <c r="F8" t="n">
-        <v>8.770212765957448</v>
+        <v>8.77</v>
       </c>
       <c r="G8" t="n">
-        <v>8.921708185053381</v>
+        <v>8.92</v>
       </c>
       <c r="H8" t="n">
-        <v>9.031152647975079</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>9.088642659279778</v>
+        <v>9.09</v>
       </c>
     </row>
   </sheetData>
